--- a/election_votar_data/LOHAGARA/CHARAMBA/152602/152602_com_1249_male_without_photo_70_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152602/152602_com_1249_male_without_photo_70_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="35.5" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1743,10 +1743,14 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:১৭/১১/১৯৮৬</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>১৭/১১/১৯৮৬</t>
+        </is>
+      </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
           <t>আতিয়ার পাড়া, আবদু শুকুর বাড়ি, চর আমবা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -11063,7 +11067,7 @@
       </c>
       <c r="F253" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১৯/০৮/১৯৮২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G253" s="3" t="inlineStr">
@@ -11399,7 +11403,7 @@
       </c>
       <c r="F261" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১০/০২/১৯৮২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G261" s="3" t="inlineStr">
@@ -12701,10 +12705,14 @@
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:১৮/০৮/১৯৮২</t>
-        </is>
-      </c>
-      <c r="G292" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G292" s="3" t="inlineStr">
+        <is>
+          <t>১৮/০৮/১৯৮২</t>
+        </is>
+      </c>
       <c r="H292" s="5" t="inlineStr">
         <is>
           <t>আবদুল শুকুর বাড়ি, আতিয়ার পাড়া, চর আমবা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -14147,7 +14155,7 @@
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t>শাহ আলম</t>
+          <t xml:space="preserve"> শাহ আলম</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
@@ -17149,10 +17157,14 @@
       </c>
       <c r="F398" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:১৪/১০/১৯৮৭</t>
-        </is>
-      </c>
-      <c r="G398" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G398" s="3" t="inlineStr">
+        <is>
+          <t>১৪/১০/১৯৮৭</t>
+        </is>
+      </c>
       <c r="H398" s="5" t="inlineStr">
         <is>
           <t>গুরাইয়ার বাপের পাড়া, চরষা, আতিয়ার পাড়া, চর আমবা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -17187,7 +17199,7 @@
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০৬/০৬/১৯৯৮</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
@@ -28359,7 +28371,7 @@
       </c>
       <c r="F665" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা জন্ম তারিখ:৩১/০১/১৯৬৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G665" s="3" t="inlineStr">
@@ -34113,7 +34125,7 @@
       </c>
       <c r="F802" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০৯/০৬/১৯৯০</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G802" s="3" t="inlineStr">
@@ -34659,7 +34671,7 @@
       </c>
       <c r="F815" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রি.জন্ম তারিখ:১৯/০২/১৯৮২</t>
+          <t>মিস্ট্রি</t>
         </is>
       </c>
       <c r="G815" s="3" t="inlineStr">
@@ -46377,7 +46389,7 @@
       </c>
       <c r="F1094" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ১৬/০৫/২০০৮</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G1094" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHARAMBA/152602/152602_com_1249_male_without_photo_70_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152602/152602_com_1249_male_without_photo_70_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="35.5" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1743,14 +1743,10 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>১৭/১১/১৯৮৬</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:১৭/১১/১৯৮৬</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr">
         <is>
           <t>আতিয়ার পাড়া, আবদু শুকুর বাড়ি, চর আমবা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -11067,7 +11063,7 @@
       </c>
       <c r="F253" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১৯/০৮/১৯৮২</t>
         </is>
       </c>
       <c r="G253" s="3" t="inlineStr">
@@ -11403,7 +11399,7 @@
       </c>
       <c r="F261" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০২/১৯৮২</t>
         </is>
       </c>
       <c r="G261" s="3" t="inlineStr">
@@ -12705,14 +12701,10 @@
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G292" s="3" t="inlineStr">
-        <is>
-          <t>১৮/০৮/১৯৮২</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:১৮/০৮/১৯৮২</t>
+        </is>
+      </c>
+      <c r="G292" s="3" t="inlineStr"/>
       <c r="H292" s="5" t="inlineStr">
         <is>
           <t>আবদুল শুকুর বাড়ি, আতিয়ার পাড়া, চর আমবা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -14155,7 +14147,7 @@
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> শাহ আলম</t>
+          <t>শাহ আলম</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
@@ -17157,14 +17149,10 @@
       </c>
       <c r="F398" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G398" s="3" t="inlineStr">
-        <is>
-          <t>১৪/১০/১৯৮৭</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:১৪/১০/১৯৮৭</t>
+        </is>
+      </c>
+      <c r="G398" s="3" t="inlineStr"/>
       <c r="H398" s="5" t="inlineStr">
         <is>
           <t>গুরাইয়ার বাপের পাড়া, চরষা, আতিয়ার পাড়া, চর আমবা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -17199,7 +17187,7 @@
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৬/০৬/১৯৯৮</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
@@ -28371,7 +28359,7 @@
       </c>
       <c r="F665" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা জন্ম তারিখ:৩১/০১/১৯৬৫</t>
         </is>
       </c>
       <c r="G665" s="3" t="inlineStr">
@@ -34125,7 +34113,7 @@
       </c>
       <c r="F802" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৯/০৬/১৯৯০</t>
         </is>
       </c>
       <c r="G802" s="3" t="inlineStr">
@@ -34671,7 +34659,7 @@
       </c>
       <c r="F815" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রি</t>
+          <t>মিস্ট্রি.জন্ম তারিখ:১৯/০২/১৯৮২</t>
         </is>
       </c>
       <c r="G815" s="3" t="inlineStr">
@@ -46389,7 +46377,7 @@
       </c>
       <c r="F1094" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ: ১৬/০৫/২০০৮</t>
         </is>
       </c>
       <c r="G1094" s="3" t="inlineStr">
